--- a/Team-Data/2014-15/3-18-2014-15.xlsx
+++ b/Team-Data/2014-15/3-18-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,52 +733,52 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.779</v>
+        <v>0.791</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
         <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -738,16 +805,16 @@
         <v>20.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -759,16 +826,16 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -777,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -807,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.448</v>
+        <v>0.455</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M3" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
         <v>11.2</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -956,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -971,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>13</v>
@@ -980,25 +1047,25 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.409</v>
+        <v>0.415</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1060,7 +1127,7 @@
         <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O4" t="n">
         <v>16.3</v>
@@ -1069,22 +1136,22 @@
         <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1099,16 +1166,16 @@
         <v>19.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1126,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1156,34 +1223,34 @@
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.594</v>
+        <v>0.588</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1418,31 +1485,31 @@
         <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
         <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P6" t="n">
         <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U6" t="n">
         <v>21.5</v>
@@ -1457,10 +1524,10 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA6" t="n">
         <v>21.4</v>
@@ -1469,13 +1536,13 @@
         <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1484,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1508,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1532,19 +1599,19 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="n">
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M7" t="n">
         <v>26.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P7" t="n">
         <v>24.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1627,7 +1694,7 @@
         <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1648,16 +1715,16 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1693,28 +1760,28 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.647</v>
+        <v>0.632</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,16 +1843,16 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.462</v>
       </c>
       <c r="L8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
         <v>0.354</v>
@@ -1797,22 +1864,22 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.4</v>
@@ -1824,22 +1891,22 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
         <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1848,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,25 +1933,25 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2072,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2152,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O10" t="n">
         <v>16.1</v>
@@ -2161,22 +2228,22 @@
         <v>22.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.709</v>
+        <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
         <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
@@ -2185,7 +2252,7 @@
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>19</v>
@@ -2194,13 +2261,13 @@
         <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,13 +2279,13 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2233,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2260,13 +2327,13 @@
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,19 +2371,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="H11" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I11" t="n">
         <v>41.4</v>
@@ -2325,7 +2392,7 @@
         <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
@@ -2334,16 +2401,16 @@
         <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R11" t="n">
         <v>10.2</v>
@@ -2355,10 +2422,10 @@
         <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2370,7 +2437,7 @@
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
         <v>18.9</v>
@@ -2379,10 +2446,10 @@
         <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
@@ -2543,46 +2610,46 @@
         <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2600,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,22 +2676,22 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>0.448</v>
+        <v>0.455</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2710,16 +2777,16 @@
         <v>0.765</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
         <v>14.1</v>
@@ -2728,7 +2795,7 @@
         <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
         <v>4.9</v>
@@ -2740,31 +2807,31 @@
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH13" t="n">
         <v>18</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2797,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2809,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
         <v>83.3</v>
@@ -2874,19 +2941,19 @@
         <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
         <v>0.713</v>
@@ -2895,10 +2962,10 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U14" t="n">
         <v>24.4</v>
@@ -2922,22 +2989,22 @@
         <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2946,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2970,7 +3037,7 @@
         <v>28</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>10</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,25 +3165,25 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3128,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
@@ -3149,10 +3216,10 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3176,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3355,13 +3422,13 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.463</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J17" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
@@ -3462,19 +3529,19 @@
         <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3510,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3549,7 +3616,7 @@
         <v>27</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3605,13 +3672,13 @@
         <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
         <v>21</v>
@@ -3629,19 +3696,19 @@
         <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z18" t="n">
         <v>22</v>
@@ -3650,19 +3717,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3674,10 +3741,10 @@
         <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3689,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3704,13 +3771,13 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3719,10 +3786,10 @@
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="H19" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J19" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
@@ -3808,7 +3875,7 @@
         <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U19" t="n">
         <v>22</v>
@@ -3823,28 +3890,28 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
@@ -3853,10 +3920,10 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3871,13 +3938,13 @@
         <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3889,10 +3956,10 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.545</v>
+        <v>0.552</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O20" t="n">
         <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,19 +4123,19 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4244,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV21" t="n">
         <v>16</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J22" t="n">
         <v>86.3</v>
@@ -4330,43 +4397,43 @@
         <v>0.445</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O22" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P22" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R22" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T22" t="n">
         <v>47.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
         <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.5</v>
@@ -4375,16 +4442,16 @@
         <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="AC22" t="n">
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,13 +4463,13 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4414,16 +4481,16 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,25 +4505,25 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW22" t="n">
         <v>22</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -4503,55 +4570,55 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4560,13 +4627,13 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,7 +4651,7 @@
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,19 +4687,19 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
         <v>52</v>
       </c>
       <c r="G24" t="n">
-        <v>0.235</v>
+        <v>0.224</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,28 +4755,28 @@
         <v>33.4</v>
       </c>
       <c r="J24" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
         <v>25.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P24" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.673</v>
+        <v>0.674</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
@@ -4727,28 +4794,28 @@
         <v>18.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
         <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
         <v>91</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.6</v>
+        <v>-9.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4957,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
         <v>13</v>
@@ -4975,13 +5042,13 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -4996,10 +5063,10 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,10 +5119,10 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
@@ -5067,13 +5134,13 @@
         <v>0.364</v>
       </c>
       <c r="O26" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.801</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5088,16 +5155,16 @@
         <v>22.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
         <v>18.4</v>
@@ -5109,16 +5176,16 @@
         <v>102.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
         <v>4</v>
@@ -5142,19 +5209,19 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,16 +5239,16 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
         <v>16.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
         <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
@@ -5270,7 +5337,7 @@
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5282,7 +5349,7 @@
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
         <v>24.3</v>
@@ -5291,10 +5358,10 @@
         <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5354,13 +5421,13 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5416,49 +5483,49 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.773</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5467,22 +5534,22 @@
         <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>7</v>
@@ -5527,10 +5594,10 @@
         <v>16</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
@@ -5545,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,31 +5665,31 @@
         <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L29" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>30.7</v>
@@ -5646,7 +5713,7 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA29" t="n">
         <v>20.6</v>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5670,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5691,13 +5758,13 @@
         <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>15</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5718,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,13 +5794,13 @@
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.448</v>
+        <v>0.455</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,10 +5847,10 @@
         <v>35.5</v>
       </c>
       <c r="J30" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
@@ -5792,7 +5859,7 @@
         <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
         <v>16.7</v>
@@ -5801,22 +5868,22 @@
         <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.725</v>
+        <v>0.729</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T30" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
         <v>7.2</v>
@@ -5825,7 +5892,7 @@
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
         <v>19</v>
@@ -5834,22 +5901,22 @@
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>18</v>
@@ -5882,13 +5949,13 @@
         <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5897,19 +5964,19 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>7</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.588</v>
+        <v>0.582</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,40 +6041,40 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
         <v>0.743</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
         <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U31" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
         <v>21.1</v>
@@ -6016,13 +6083,13 @@
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6070,19 +6137,19 @@
         <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2014-15</t>
+          <t>2015-03-18</t>
         </is>
       </c>
     </row>
